--- a/data/trans_camb/P23_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_3_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>13,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,82</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 10,56</t>
+          <t>-3,38; 21,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 13,65</t>
+          <t>0,49; 32,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 11,59</t>
+          <t>-16,03; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 8,02</t>
+          <t>-3,89; 19,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 8,58</t>
+          <t>-5,96; 14,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 6,74</t>
+          <t>-7,45; 11,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 15,36</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 18,58</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 4,55</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>208,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,56%</t>
+          <t>427,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>133,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>77,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>35,65%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>159,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>215,05%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-19,22%</t>
         </is>
       </c>
     </row>
@@ -715,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-79,6; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,3; 232,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,47; 172,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,34; 191,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,11; 165,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-45,85; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-31,12; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,57</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-11,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-16,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-8,79</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-10,23</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-6,56</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 26,5</t>
+          <t>-3,66; 50,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 9,4</t>
+          <t>-18,32; 10,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 8,31</t>
+          <t>-19,46; 11,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 4,3</t>
+          <t>-25,28; 4,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 12,02</t>
+          <t>-30,86; -1,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 3,5</t>
+          <t>-23,24; 9,94</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 22,35</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; 0,04</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,72; 5,39</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>115,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,26%</t>
+          <t>-28,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>-24,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,74%</t>
+          <t>-41,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-62,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,99%</t>
+          <t>-32,54%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-51,23%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-32,86%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,69; 303,1</t>
+          <t>-33,45; 822,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,75; 103,53</t>
+          <t>-84,63; 167,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 59,81</t>
+          <t>-79,51; 176,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,18; 30,62</t>
+          <t>-76,11; 27,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 88,31</t>
+          <t>-86,46; 2,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,96; 25,95</t>
+          <t>-70,12; 61,32</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-46,78; 168,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-79,13; 2,95</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-68,81; 38,88</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-8,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-11,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-12,12</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,14</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-9,82</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-7,72</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 11,32</t>
+          <t>-24,52; 8,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 18,56</t>
+          <t>-22,46; 11,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 2,3</t>
+          <t>-18,23; 15,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,54; -2,32</t>
+          <t>-17,2; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 2,47</t>
+          <t>-23,93; -1,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 4,64</t>
+          <t>-23,19; -1,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-16,13; 2,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,89; -0,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,75; 1,1</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>-26,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>-23,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-43,11%</t>
+          <t>-17,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,48%</t>
+          <t>-42,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,98%</t>
+          <t>-44,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-21,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-33,81%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-26,58%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,99; 57,35</t>
+          <t>-61,65; 38,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 91,66</t>
+          <t>-58,21; 53,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,47; 12,85</t>
+          <t>-45,79; 71,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,23; -10,18</t>
+          <t>-51,2; 31,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 10,57</t>
+          <t>-68,9; 0,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,03; 20,73</t>
+          <t>-69,46; -5,3</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-47,11; 10,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-56,59; -1,43</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-49,24; 5,49</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-4,24</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-5,81</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 5,1</t>
+          <t>-17,83; 4,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 0,89</t>
+          <t>-22,78; -2,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 10,03</t>
+          <t>-16,6; 6,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 9,01</t>
+          <t>-16,0; 10,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 5,02</t>
+          <t>-12,02; 13,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 1,67</t>
+          <t>-10,9; 16,39</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-12,74; 4,61</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-14,23; 2,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-9,67; 8,87</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,45%</t>
+          <t>-35,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-42,32%</t>
+          <t>-65,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>-24,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,89%</t>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-16,57%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-22,7%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-4,33%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,28; 37,22</t>
+          <t>-70,24; 50,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,58; 10,37</t>
+          <t>-88,13; -8,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 44,76</t>
+          <t>-66,08; 54,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 38,9</t>
+          <t>-40,48; 45,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 23,47</t>
+          <t>-32,66; 59,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,73; 8,6</t>
+          <t>-29,7; 68,46</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-43,04; 22,26</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-48,13; 13,94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-33,89; 41,12</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>11,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>16,74</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9,28</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 13,16</t>
+          <t>-6,49; 17,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 6,96</t>
+          <t>-5,21; 18,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 13,29</t>
+          <t>-9,81; 13,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 12,19</t>
+          <t>-3,65; 27,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 10,7</t>
+          <t>-7,44; 21,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 6,58</t>
+          <t>1,64; 33,73</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 16,85</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 15,6</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 19,66</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>62,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>140,68%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>67,15%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>55,14%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>84,45%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 126,69</t>
+          <t>-46,7; 334,01</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,52; 68,67</t>
+          <t>-40,52; 340,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 112,97</t>
+          <t>-57,0; 262,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,74; 111,19</t>
+          <t>-28,74; 490,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 89,82</t>
+          <t>-50,93; 388,52</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 53,88</t>
+          <t>-0,92; 678,14</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,29; 239,22</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-16,42; 213,53</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 248,63</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>14,76</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-4,16</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>12,28</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -0,02</t>
+          <t>-24,29; 2,08</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 9,38</t>
+          <t>-17,39; 12,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 8,59</t>
+          <t>-8,69; 25,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -2,18</t>
+          <t>-11,8; 18,35</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 3,44</t>
+          <t>-18,88; 5,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 0,29</t>
+          <t>-2,3; 32,51</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-11,04; 7,7</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 4,25</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 25,07</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-71,12%</t>
+          <t>-72,5%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>-22,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-65,2%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>-50,41%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-50,16%</t>
+          <t>141,52%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-16,2%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-37,61%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>110,97%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 219,43</t>
+          <t>-100,0; 390,89</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,96; 78,74</t>
+          <t>-55,03; 543,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-91,95; -9,06</t>
+          <t>-73,75; 539,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-68,8; 35,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-77,38; 9,84</t>
+          <t>-32,95; 1142,8</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-72,25; 176,3</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-85,48; 88,85</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-11,47; 388,67</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 3,73</t>
+          <t>-5,22; 9,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,34</t>
+          <t>-7,67; 3,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 3,04</t>
+          <t>-7,16; 4,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -1,47</t>
+          <t>-7,1; 4,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,75</t>
+          <t>-10,89; -0,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -0,82</t>
+          <t>-6,13; 6,27</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 4,68</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; -0,01</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 3,49</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>-13,06%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>-8,36%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>-25,66%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-24,01%</t>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-20,95%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-3,98%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 24,81</t>
+          <t>-29,36; 75,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 16,28</t>
+          <t>-40,77; 29,15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 17,36</t>
+          <t>-37,67; 40,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-44,64; -7,07</t>
+          <t>-29,16; 24,7</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 9,96</t>
+          <t>-45,08; -1,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-37,69; -4,67</t>
+          <t>-26,18; 31,64</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; 27,33</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-39,98; -0,04</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 21,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
